--- a/docs/bodyct/bodyct-metadata.xlsx
+++ b/docs/bodyct/bodyct-metadata.xlsx
@@ -219,7 +219,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>TODO</t>
+          <t>The format in which each single imaging file will be exported. (Example: DICOM, tiff, avi, etc.)</t>
         </r>
       </text>
     </comment>

--- a/docs/bodyct/bodyct-metadata.xlsx
+++ b/docs/bodyct/bodyct-metadata.xlsx
@@ -487,7 +487,7 @@
     <t>assay_category</t>
   </si>
   <si>
-    <t>imaging</t>
+    <t>clinical_imaging</t>
   </si>
   <si>
     <t>assay_type</t>
@@ -1023,7 +1023,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: clinical_imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Body CT." sqref="L2:L1048576">
